--- a/Excel-XLSX/UN-SAU.xlsx
+++ b/Excel-XLSX/UN-SAU.xlsx
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>1zm3UX</t>
+    <t>ve0E4M</t>
   </si>
   <si>
     <t>1982</t>
@@ -1419,130 +1419,130 @@
     <t>286</t>
   </si>
   <si>
+    <t>317</t>
+  </si>
+  <si>
+    <t>3615</t>
+  </si>
+  <si>
+    <t>287</t>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+  </si>
+  <si>
+    <t>TKM</t>
+  </si>
+  <si>
+    <t>288</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>TUN</t>
+  </si>
+  <si>
+    <t>289</t>
+  </si>
+  <si>
+    <t>290</t>
+  </si>
+  <si>
+    <t>291</t>
+  </si>
+  <si>
+    <t>292</t>
+  </si>
+  <si>
+    <t>294</t>
+  </si>
+  <si>
+    <t>295</t>
+  </si>
+  <si>
+    <t>296</t>
+  </si>
+  <si>
+    <t>297</t>
+  </si>
+  <si>
+    <t>298</t>
+  </si>
+  <si>
+    <t>299</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>301</t>
+  </si>
+  <si>
+    <t>302</t>
+  </si>
+  <si>
+    <t>303</t>
+  </si>
+  <si>
+    <t>304</t>
+  </si>
+  <si>
+    <t>305</t>
+  </si>
+  <si>
+    <t>306</t>
+  </si>
+  <si>
+    <t>307</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>UZB</t>
+  </si>
+  <si>
+    <t>308</t>
+  </si>
+  <si>
+    <t>309</t>
+  </si>
+  <si>
+    <t>310</t>
+  </si>
+  <si>
+    <t>311</t>
+  </si>
+  <si>
+    <t>312</t>
+  </si>
+  <si>
+    <t>313</t>
+  </si>
+  <si>
+    <t>314</t>
+  </si>
+  <si>
+    <t>315</t>
+  </si>
+  <si>
+    <t>316</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>YEM</t>
+  </si>
+  <si>
+    <t>318</t>
+  </si>
+  <si>
+    <t>319</t>
+  </si>
+  <si>
     <t>320</t>
-  </si>
-  <si>
-    <t>3604</t>
-  </si>
-  <si>
-    <t>287</t>
-  </si>
-  <si>
-    <t>Turkmenistan</t>
-  </si>
-  <si>
-    <t>TKM</t>
-  </si>
-  <si>
-    <t>288</t>
-  </si>
-  <si>
-    <t>Tunisia</t>
-  </si>
-  <si>
-    <t>TUN</t>
-  </si>
-  <si>
-    <t>289</t>
-  </si>
-  <si>
-    <t>290</t>
-  </si>
-  <si>
-    <t>291</t>
-  </si>
-  <si>
-    <t>292</t>
-  </si>
-  <si>
-    <t>294</t>
-  </si>
-  <si>
-    <t>295</t>
-  </si>
-  <si>
-    <t>296</t>
-  </si>
-  <si>
-    <t>297</t>
-  </si>
-  <si>
-    <t>298</t>
-  </si>
-  <si>
-    <t>299</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>301</t>
-  </si>
-  <si>
-    <t>302</t>
-  </si>
-  <si>
-    <t>303</t>
-  </si>
-  <si>
-    <t>304</t>
-  </si>
-  <si>
-    <t>305</t>
-  </si>
-  <si>
-    <t>306</t>
-  </si>
-  <si>
-    <t>307</t>
-  </si>
-  <si>
-    <t>Uzbekistan</t>
-  </si>
-  <si>
-    <t>UZB</t>
-  </si>
-  <si>
-    <t>308</t>
-  </si>
-  <si>
-    <t>309</t>
-  </si>
-  <si>
-    <t>310</t>
-  </si>
-  <si>
-    <t>311</t>
-  </si>
-  <si>
-    <t>312</t>
-  </si>
-  <si>
-    <t>313</t>
-  </si>
-  <si>
-    <t>314</t>
-  </si>
-  <si>
-    <t>315</t>
-  </si>
-  <si>
-    <t>316</t>
-  </si>
-  <si>
-    <t>Yemen</t>
-  </si>
-  <si>
-    <t>YEM</t>
-  </si>
-  <si>
-    <t>317</t>
-  </si>
-  <si>
-    <t>318</t>
-  </si>
-  <si>
-    <t>319</t>
   </si>
   <si>
     <t>321</t>
@@ -2202,8 +2202,8 @@
       <c r="U2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>33</v>
+      <c r="V2" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -2270,8 +2270,8 @@
       <c r="U3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>33</v>
+      <c r="V3" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4">
@@ -2338,8 +2338,8 @@
       <c r="U4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>33</v>
+      <c r="V4" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5">
@@ -2406,8 +2406,8 @@
       <c r="U5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V5" s="1" t="s">
-        <v>33</v>
+      <c r="V5" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6">
@@ -2474,8 +2474,8 @@
       <c r="U6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V6" s="1" t="s">
-        <v>33</v>
+      <c r="V6" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="7">
@@ -2542,8 +2542,8 @@
       <c r="U7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V7" s="1" t="s">
-        <v>33</v>
+      <c r="V7" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="8">
@@ -2610,8 +2610,8 @@
       <c r="U8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V8" s="1" t="s">
-        <v>33</v>
+      <c r="V8" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9">
@@ -2678,8 +2678,8 @@
       <c r="U9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V9" s="1" t="s">
-        <v>33</v>
+      <c r="V9" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10">
@@ -2746,8 +2746,8 @@
       <c r="U10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V10" s="1" t="s">
-        <v>33</v>
+      <c r="V10" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="11">
@@ -2814,8 +2814,8 @@
       <c r="U11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V11" s="1" t="s">
-        <v>33</v>
+      <c r="V11" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="12">
@@ -2882,8 +2882,8 @@
       <c r="U12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V12" s="1" t="s">
-        <v>33</v>
+      <c r="V12" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="13">
@@ -2950,8 +2950,8 @@
       <c r="U13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V13" s="1" t="s">
-        <v>33</v>
+      <c r="V13" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="14">
@@ -3018,8 +3018,8 @@
       <c r="U14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V14" s="1" t="s">
-        <v>33</v>
+      <c r="V14" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15">
@@ -3086,8 +3086,8 @@
       <c r="U15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V15" s="1" t="s">
-        <v>33</v>
+      <c r="V15" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="16">
@@ -3154,8 +3154,8 @@
       <c r="U16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V16" s="1" t="s">
-        <v>33</v>
+      <c r="V16" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="17">
@@ -3222,8 +3222,8 @@
       <c r="U17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V17" s="1" t="s">
-        <v>33</v>
+      <c r="V17" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="18">
@@ -3290,8 +3290,8 @@
       <c r="U18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V18" s="1" t="s">
-        <v>33</v>
+      <c r="V18" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19">
@@ -3358,8 +3358,8 @@
       <c r="U19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V19" s="1" t="s">
-        <v>33</v>
+      <c r="V19" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="20">
@@ -3426,8 +3426,8 @@
       <c r="U20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V20" s="1" t="s">
-        <v>33</v>
+      <c r="V20" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="21">
@@ -3494,8 +3494,8 @@
       <c r="U21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V21" s="1" t="s">
-        <v>33</v>
+      <c r="V21" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="22">
@@ -3562,8 +3562,8 @@
       <c r="U22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V22" s="1" t="s">
-        <v>33</v>
+      <c r="V22" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="23">
@@ -3630,8 +3630,8 @@
       <c r="U23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V23" s="1" t="s">
-        <v>33</v>
+      <c r="V23" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="24">
@@ -3698,8 +3698,8 @@
       <c r="U24" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V24" s="1" t="s">
-        <v>33</v>
+      <c r="V24" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="25">
@@ -3766,8 +3766,8 @@
       <c r="U25" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V25" s="1" t="s">
-        <v>33</v>
+      <c r="V25" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="26">
@@ -3834,8 +3834,8 @@
       <c r="U26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V26" s="1" t="s">
-        <v>33</v>
+      <c r="V26" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="27">
@@ -3902,8 +3902,8 @@
       <c r="U27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V27" s="1" t="s">
-        <v>33</v>
+      <c r="V27" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="28">
@@ -3970,8 +3970,8 @@
       <c r="U28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V28" s="1" t="s">
-        <v>33</v>
+      <c r="V28" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="29">
@@ -4038,8 +4038,8 @@
       <c r="U29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V29" s="1" t="s">
-        <v>33</v>
+      <c r="V29" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="30">
@@ -4106,8 +4106,8 @@
       <c r="U30" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V30" s="1" t="s">
-        <v>33</v>
+      <c r="V30" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="31">
@@ -4174,8 +4174,8 @@
       <c r="U31" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V31" s="1" t="s">
-        <v>33</v>
+      <c r="V31" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="32">
@@ -4242,8 +4242,8 @@
       <c r="U32" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V32" s="1" t="s">
-        <v>33</v>
+      <c r="V32" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="33">
@@ -4310,8 +4310,8 @@
       <c r="U33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V33" s="1" t="s">
-        <v>33</v>
+      <c r="V33" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="34">
@@ -4378,8 +4378,8 @@
       <c r="U34" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V34" s="1" t="s">
-        <v>33</v>
+      <c r="V34" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="35">
@@ -4446,8 +4446,8 @@
       <c r="U35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V35" s="1" t="s">
-        <v>33</v>
+      <c r="V35" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="36">
@@ -4514,8 +4514,8 @@
       <c r="U36" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V36" s="1" t="s">
-        <v>33</v>
+      <c r="V36" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="37">
@@ -4582,8 +4582,8 @@
       <c r="U37" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V37" s="1" t="s">
-        <v>33</v>
+      <c r="V37" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="38">
@@ -4650,8 +4650,8 @@
       <c r="U38" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V38" s="1" t="s">
-        <v>33</v>
+      <c r="V38" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="39">
@@ -4718,8 +4718,8 @@
       <c r="U39" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V39" s="1" t="s">
-        <v>33</v>
+      <c r="V39" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="40">
@@ -4854,8 +4854,8 @@
       <c r="U41" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V41" s="1" t="s">
-        <v>33</v>
+      <c r="V41" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="42">
@@ -4922,8 +4922,8 @@
       <c r="U42" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V42" s="1" t="s">
-        <v>33</v>
+      <c r="V42" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="43">
@@ -4990,8 +4990,8 @@
       <c r="U43" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V43" s="1" t="s">
-        <v>33</v>
+      <c r="V43" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="44">
@@ -5058,8 +5058,8 @@
       <c r="U44" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V44" s="1" t="s">
-        <v>33</v>
+      <c r="V44" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="45">
@@ -5126,8 +5126,8 @@
       <c r="U45" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V45" s="1" t="s">
-        <v>33</v>
+      <c r="V45" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="46">
@@ -5194,8 +5194,8 @@
       <c r="U46" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V46" s="1" t="s">
-        <v>33</v>
+      <c r="V46" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="47">
@@ -5262,8 +5262,8 @@
       <c r="U47" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V47" s="1" t="s">
-        <v>33</v>
+      <c r="V47" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="48">
@@ -5330,8 +5330,8 @@
       <c r="U48" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V48" s="1" t="s">
-        <v>33</v>
+      <c r="V48" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="49">
@@ -5398,8 +5398,8 @@
       <c r="U49" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V49" s="1" t="s">
-        <v>33</v>
+      <c r="V49" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="50">
@@ -5466,8 +5466,8 @@
       <c r="U50" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V50" s="1" t="s">
-        <v>33</v>
+      <c r="V50" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="51">
@@ -5534,8 +5534,8 @@
       <c r="U51" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V51" s="1" t="s">
-        <v>33</v>
+      <c r="V51" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="52">
@@ -5602,8 +5602,8 @@
       <c r="U52" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V52" s="1" t="s">
-        <v>33</v>
+      <c r="V52" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="53">
@@ -5670,8 +5670,8 @@
       <c r="U53" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V53" s="1" t="s">
-        <v>33</v>
+      <c r="V53" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="54">
@@ -5738,8 +5738,8 @@
       <c r="U54" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V54" s="1" t="s">
-        <v>33</v>
+      <c r="V54" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="55">
@@ -5806,8 +5806,8 @@
       <c r="U55" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V55" s="1" t="s">
-        <v>33</v>
+      <c r="V55" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="56">
@@ -5874,8 +5874,8 @@
       <c r="U56" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V56" s="1" t="s">
-        <v>33</v>
+      <c r="V56" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="57">
@@ -5942,8 +5942,8 @@
       <c r="U57" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V57" s="1" t="s">
-        <v>33</v>
+      <c r="V57" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="58">
@@ -6146,8 +6146,8 @@
       <c r="U60" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V60" s="1" t="s">
-        <v>33</v>
+      <c r="V60" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="61">
@@ -6214,8 +6214,8 @@
       <c r="U61" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V61" s="1" t="s">
-        <v>33</v>
+      <c r="V61" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="62">
@@ -6282,8 +6282,8 @@
       <c r="U62" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V62" s="1" t="s">
-        <v>33</v>
+      <c r="V62" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="63">
@@ -6350,8 +6350,8 @@
       <c r="U63" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V63" s="1" t="s">
-        <v>33</v>
+      <c r="V63" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="64">
@@ -6418,8 +6418,8 @@
       <c r="U64" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V64" s="1" t="s">
-        <v>33</v>
+      <c r="V64" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="65">
@@ -6486,8 +6486,8 @@
       <c r="U65" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V65" s="1" t="s">
-        <v>33</v>
+      <c r="V65" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="66">
@@ -6554,8 +6554,8 @@
       <c r="U66" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V66" s="1" t="s">
-        <v>33</v>
+      <c r="V66" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="67">
@@ -6622,8 +6622,8 @@
       <c r="U67" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V67" s="1" t="s">
-        <v>33</v>
+      <c r="V67" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="68">
@@ -6690,8 +6690,8 @@
       <c r="U68" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V68" s="1" t="s">
-        <v>33</v>
+      <c r="V68" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="69">
@@ -6758,8 +6758,8 @@
       <c r="U69" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V69" s="1" t="s">
-        <v>33</v>
+      <c r="V69" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="70">
@@ -6826,8 +6826,8 @@
       <c r="U70" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V70" s="1" t="s">
-        <v>33</v>
+      <c r="V70" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="71">
@@ -6894,8 +6894,8 @@
       <c r="U71" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V71" s="1" t="s">
-        <v>33</v>
+      <c r="V71" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="72">
@@ -6962,8 +6962,8 @@
       <c r="U72" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V72" s="1" t="s">
-        <v>33</v>
+      <c r="V72" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="73">
@@ -7030,8 +7030,8 @@
       <c r="U73" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V73" s="1" t="s">
-        <v>33</v>
+      <c r="V73" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="74">
@@ -7098,8 +7098,8 @@
       <c r="U74" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V74" s="1" t="s">
-        <v>33</v>
+      <c r="V74" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="75">
@@ -7166,8 +7166,8 @@
       <c r="U75" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V75" s="1" t="s">
-        <v>33</v>
+      <c r="V75" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="76">
@@ -7234,8 +7234,8 @@
       <c r="U76" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V76" s="1" t="s">
-        <v>33</v>
+      <c r="V76" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="77">
@@ -7302,8 +7302,8 @@
       <c r="U77" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V77" s="1" t="s">
-        <v>33</v>
+      <c r="V77" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="78">
@@ -7370,8 +7370,8 @@
       <c r="U78" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V78" s="1" t="s">
-        <v>33</v>
+      <c r="V78" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="79">
@@ -7483,10 +7483,10 @@
         <v>30</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="O80" s="2" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="P80" s="2" t="s">
         <v>32</v>
@@ -7574,8 +7574,8 @@
       <c r="U81" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V81" s="1" t="s">
-        <v>33</v>
+      <c r="V81" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="82">
@@ -7642,8 +7642,8 @@
       <c r="U82" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V82" s="1" t="s">
-        <v>33</v>
+      <c r="V82" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="83">
@@ -7710,8 +7710,8 @@
       <c r="U83" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V83" s="1" t="s">
-        <v>33</v>
+      <c r="V83" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="84">
@@ -7778,8 +7778,8 @@
       <c r="U84" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V84" s="1" t="s">
-        <v>33</v>
+      <c r="V84" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="85">
@@ -7846,8 +7846,8 @@
       <c r="U85" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V85" s="1" t="s">
-        <v>33</v>
+      <c r="V85" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="86">
@@ -7914,8 +7914,8 @@
       <c r="U86" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V86" s="1" t="s">
-        <v>33</v>
+      <c r="V86" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="87">
@@ -7982,8 +7982,8 @@
       <c r="U87" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V87" s="1" t="s">
-        <v>33</v>
+      <c r="V87" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="88">
@@ -8050,8 +8050,8 @@
       <c r="U88" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V88" s="1" t="s">
-        <v>33</v>
+      <c r="V88" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="89">
@@ -8118,8 +8118,8 @@
       <c r="U89" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V89" s="1" t="s">
-        <v>33</v>
+      <c r="V89" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="90">
@@ -8186,8 +8186,8 @@
       <c r="U90" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V90" s="1" t="s">
-        <v>33</v>
+      <c r="V90" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="91">
@@ -8254,8 +8254,8 @@
       <c r="U91" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V91" s="1" t="s">
-        <v>33</v>
+      <c r="V91" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="92">
@@ -8322,8 +8322,8 @@
       <c r="U92" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V92" s="1" t="s">
-        <v>33</v>
+      <c r="V92" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="93">
@@ -8390,8 +8390,8 @@
       <c r="U93" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V93" s="1" t="s">
-        <v>33</v>
+      <c r="V93" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="94">
@@ -8458,8 +8458,8 @@
       <c r="U94" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V94" s="1" t="s">
-        <v>33</v>
+      <c r="V94" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="95">
@@ -8526,8 +8526,8 @@
       <c r="U95" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V95" s="1" t="s">
-        <v>33</v>
+      <c r="V95" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="96">
@@ -8594,8 +8594,8 @@
       <c r="U96" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V96" s="1" t="s">
-        <v>33</v>
+      <c r="V96" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="97">
@@ -8662,8 +8662,8 @@
       <c r="U97" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V97" s="1" t="s">
-        <v>33</v>
+      <c r="V97" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="98">
@@ -8730,8 +8730,8 @@
       <c r="U98" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V98" s="1" t="s">
-        <v>33</v>
+      <c r="V98" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="99">
@@ -8798,8 +8798,8 @@
       <c r="U99" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V99" s="1" t="s">
-        <v>33</v>
+      <c r="V99" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="100">
@@ -8866,8 +8866,8 @@
       <c r="U100" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V100" s="1" t="s">
-        <v>33</v>
+      <c r="V100" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="101">
@@ -8934,8 +8934,8 @@
       <c r="U101" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V101" s="1" t="s">
-        <v>33</v>
+      <c r="V101" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="102">
@@ -9002,8 +9002,8 @@
       <c r="U102" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V102" s="1" t="s">
-        <v>33</v>
+      <c r="V102" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="103">
@@ -9070,8 +9070,8 @@
       <c r="U103" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V103" s="1" t="s">
-        <v>33</v>
+      <c r="V103" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="104">
@@ -9138,8 +9138,8 @@
       <c r="U104" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V104" s="1" t="s">
-        <v>33</v>
+      <c r="V104" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="105">
@@ -9206,8 +9206,8 @@
       <c r="U105" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V105" s="1" t="s">
-        <v>33</v>
+      <c r="V105" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="106">
@@ -9274,8 +9274,8 @@
       <c r="U106" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V106" s="1" t="s">
-        <v>33</v>
+      <c r="V106" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="107">
@@ -9342,8 +9342,8 @@
       <c r="U107" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V107" s="1" t="s">
-        <v>33</v>
+      <c r="V107" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="108">
@@ -9410,8 +9410,8 @@
       <c r="U108" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V108" s="1" t="s">
-        <v>33</v>
+      <c r="V108" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="109">
@@ -9478,8 +9478,8 @@
       <c r="U109" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V109" s="1" t="s">
-        <v>33</v>
+      <c r="V109" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="110">
@@ -9546,8 +9546,8 @@
       <c r="U110" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V110" s="1" t="s">
-        <v>33</v>
+      <c r="V110" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="111">
@@ -9614,8 +9614,8 @@
       <c r="U111" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V111" s="1" t="s">
-        <v>33</v>
+      <c r="V111" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="112">
@@ -9682,8 +9682,8 @@
       <c r="U112" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V112" s="1" t="s">
-        <v>33</v>
+      <c r="V112" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="113">
@@ -9750,8 +9750,8 @@
       <c r="U113" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V113" s="1" t="s">
-        <v>33</v>
+      <c r="V113" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="114">
@@ -9818,8 +9818,8 @@
       <c r="U114" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V114" s="1" t="s">
-        <v>33</v>
+      <c r="V114" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="115">
@@ -9886,8 +9886,8 @@
       <c r="U115" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V115" s="1" t="s">
-        <v>33</v>
+      <c r="V115" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="116">
@@ -9954,8 +9954,8 @@
       <c r="U116" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V116" s="1" t="s">
-        <v>33</v>
+      <c r="V116" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="117">
@@ -10022,8 +10022,8 @@
       <c r="U117" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V117" s="1" t="s">
-        <v>33</v>
+      <c r="V117" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="118">
@@ -10090,8 +10090,8 @@
       <c r="U118" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V118" s="1" t="s">
-        <v>33</v>
+      <c r="V118" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="119">
@@ -10158,8 +10158,8 @@
       <c r="U119" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V119" s="1" t="s">
-        <v>33</v>
+      <c r="V119" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="120">
@@ -10226,8 +10226,8 @@
       <c r="U120" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V120" s="1" t="s">
-        <v>33</v>
+      <c r="V120" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="121">
@@ -10294,8 +10294,8 @@
       <c r="U121" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V121" s="1" t="s">
-        <v>33</v>
+      <c r="V121" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="122">
@@ -10362,8 +10362,8 @@
       <c r="U122" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V122" s="1" t="s">
-        <v>33</v>
+      <c r="V122" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="123">
@@ -10430,8 +10430,8 @@
       <c r="U123" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V123" s="1" t="s">
-        <v>33</v>
+      <c r="V123" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="124">
@@ -10498,8 +10498,8 @@
       <c r="U124" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V124" s="1" t="s">
-        <v>33</v>
+      <c r="V124" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="125">
@@ -10566,8 +10566,8 @@
       <c r="U125" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V125" s="1" t="s">
-        <v>33</v>
+      <c r="V125" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="126">
@@ -10634,8 +10634,8 @@
       <c r="U126" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V126" s="1" t="s">
-        <v>33</v>
+      <c r="V126" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="127">
@@ -10747,7 +10747,7 @@
         <v>30</v>
       </c>
       <c r="N128" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O128" s="2" t="s">
         <v>94</v>
@@ -10838,8 +10838,8 @@
       <c r="U129" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V129" s="1" t="s">
-        <v>33</v>
+      <c r="V129" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="130">
@@ -10906,8 +10906,8 @@
       <c r="U130" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V130" s="1" t="s">
-        <v>33</v>
+      <c r="V130" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="131">
@@ -10974,8 +10974,8 @@
       <c r="U131" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V131" s="1" t="s">
-        <v>33</v>
+      <c r="V131" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="132">
@@ -11042,8 +11042,8 @@
       <c r="U132" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V132" s="1" t="s">
-        <v>33</v>
+      <c r="V132" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="133">
@@ -11110,8 +11110,8 @@
       <c r="U133" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V133" s="1" t="s">
-        <v>33</v>
+      <c r="V133" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="134">
@@ -11178,8 +11178,8 @@
       <c r="U134" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V134" s="1" t="s">
-        <v>33</v>
+      <c r="V134" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="135">
@@ -11246,8 +11246,8 @@
       <c r="U135" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V135" s="1" t="s">
-        <v>33</v>
+      <c r="V135" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="136">
@@ -11314,8 +11314,8 @@
       <c r="U136" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V136" s="1" t="s">
-        <v>33</v>
+      <c r="V136" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="137">
@@ -11382,8 +11382,8 @@
       <c r="U137" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V137" s="1" t="s">
-        <v>33</v>
+      <c r="V137" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="138">
@@ -11450,8 +11450,8 @@
       <c r="U138" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V138" s="1" t="s">
-        <v>33</v>
+      <c r="V138" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="139">
@@ -11518,8 +11518,8 @@
       <c r="U139" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V139" s="1" t="s">
-        <v>33</v>
+      <c r="V139" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="140">
@@ -11586,8 +11586,8 @@
       <c r="U140" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V140" s="1" t="s">
-        <v>33</v>
+      <c r="V140" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="141">
@@ -11654,8 +11654,8 @@
       <c r="U141" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V141" s="1" t="s">
-        <v>33</v>
+      <c r="V141" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="142">
@@ -11722,8 +11722,8 @@
       <c r="U142" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V142" s="1" t="s">
-        <v>33</v>
+      <c r="V142" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="143">
@@ -11790,8 +11790,8 @@
       <c r="U143" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V143" s="1" t="s">
-        <v>33</v>
+      <c r="V143" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="144">
@@ -11858,8 +11858,8 @@
       <c r="U144" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V144" s="1" t="s">
-        <v>33</v>
+      <c r="V144" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="145">
@@ -11926,8 +11926,8 @@
       <c r="U145" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V145" s="1" t="s">
-        <v>33</v>
+      <c r="V145" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="146">
@@ -11994,8 +11994,8 @@
       <c r="U146" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V146" s="1" t="s">
-        <v>33</v>
+      <c r="V146" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="147">
@@ -12062,8 +12062,8 @@
       <c r="U147" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V147" s="1" t="s">
-        <v>33</v>
+      <c r="V147" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="148">
@@ -12130,8 +12130,8 @@
       <c r="U148" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V148" s="1" t="s">
-        <v>33</v>
+      <c r="V148" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="149">
@@ -12198,8 +12198,8 @@
       <c r="U149" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V149" s="1" t="s">
-        <v>33</v>
+      <c r="V149" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="150">
@@ -12266,8 +12266,8 @@
       <c r="U150" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V150" s="1" t="s">
-        <v>33</v>
+      <c r="V150" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="151">
@@ -12334,8 +12334,8 @@
       <c r="U151" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V151" s="1" t="s">
-        <v>33</v>
+      <c r="V151" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="152">
@@ -12402,8 +12402,8 @@
       <c r="U152" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V152" s="1" t="s">
-        <v>33</v>
+      <c r="V152" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="153">
@@ -12470,8 +12470,8 @@
       <c r="U153" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V153" s="1" t="s">
-        <v>33</v>
+      <c r="V153" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="154">
@@ -12538,8 +12538,8 @@
       <c r="U154" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V154" s="1" t="s">
-        <v>33</v>
+      <c r="V154" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="155">
@@ -12606,8 +12606,8 @@
       <c r="U155" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V155" s="1" t="s">
-        <v>33</v>
+      <c r="V155" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="156">
@@ -12674,8 +12674,8 @@
       <c r="U156" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V156" s="1" t="s">
-        <v>33</v>
+      <c r="V156" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="157">
@@ -12742,8 +12742,8 @@
       <c r="U157" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V157" s="1" t="s">
-        <v>33</v>
+      <c r="V157" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="158">
@@ -12810,8 +12810,8 @@
       <c r="U158" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V158" s="1" t="s">
-        <v>33</v>
+      <c r="V158" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="159">
@@ -12878,8 +12878,8 @@
       <c r="U159" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V159" s="1" t="s">
-        <v>33</v>
+      <c r="V159" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="160">
@@ -12946,8 +12946,8 @@
       <c r="U160" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V160" s="1" t="s">
-        <v>33</v>
+      <c r="V160" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="161">
@@ -13014,8 +13014,8 @@
       <c r="U161" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V161" s="1" t="s">
-        <v>33</v>
+      <c r="V161" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="162">
@@ -13082,8 +13082,8 @@
       <c r="U162" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V162" s="1" t="s">
-        <v>33</v>
+      <c r="V162" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="163">
@@ -13150,8 +13150,8 @@
       <c r="U163" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V163" s="1" t="s">
-        <v>33</v>
+      <c r="V163" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="164">
@@ -13218,8 +13218,8 @@
       <c r="U164" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V164" s="1" t="s">
-        <v>33</v>
+      <c r="V164" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="165">
@@ -13286,8 +13286,8 @@
       <c r="U165" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V165" s="1" t="s">
-        <v>33</v>
+      <c r="V165" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="166">
@@ -13490,8 +13490,8 @@
       <c r="U168" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V168" s="1" t="s">
-        <v>33</v>
+      <c r="V168" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="169">
@@ -13558,8 +13558,8 @@
       <c r="U169" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V169" s="1" t="s">
-        <v>33</v>
+      <c r="V169" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="170">
@@ -13626,8 +13626,8 @@
       <c r="U170" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V170" s="1" t="s">
-        <v>33</v>
+      <c r="V170" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="171">
@@ -13694,8 +13694,8 @@
       <c r="U171" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V171" s="1" t="s">
-        <v>33</v>
+      <c r="V171" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="172">
@@ -13762,8 +13762,8 @@
       <c r="U172" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V172" s="1" t="s">
-        <v>33</v>
+      <c r="V172" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="173">
@@ -13830,8 +13830,8 @@
       <c r="U173" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V173" s="1" t="s">
-        <v>33</v>
+      <c r="V173" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="174">
@@ -13898,8 +13898,8 @@
       <c r="U174" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V174" s="1" t="s">
-        <v>33</v>
+      <c r="V174" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="175">
@@ -13966,8 +13966,8 @@
       <c r="U175" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V175" s="1" t="s">
-        <v>33</v>
+      <c r="V175" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="176">
@@ -14034,8 +14034,8 @@
       <c r="U176" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V176" s="1" t="s">
-        <v>33</v>
+      <c r="V176" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="177">
@@ -14102,8 +14102,8 @@
       <c r="U177" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V177" s="1" t="s">
-        <v>33</v>
+      <c r="V177" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="178">
@@ -14170,8 +14170,8 @@
       <c r="U178" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V178" s="1" t="s">
-        <v>33</v>
+      <c r="V178" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="179">
@@ -14238,8 +14238,8 @@
       <c r="U179" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V179" s="1" t="s">
-        <v>33</v>
+      <c r="V179" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="180">
@@ -14306,8 +14306,8 @@
       <c r="U180" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V180" s="1" t="s">
-        <v>33</v>
+      <c r="V180" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="181">
@@ -14374,8 +14374,8 @@
       <c r="U181" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V181" s="1" t="s">
-        <v>33</v>
+      <c r="V181" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="182">
@@ -14442,8 +14442,8 @@
       <c r="U182" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V182" s="1" t="s">
-        <v>33</v>
+      <c r="V182" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="183">
@@ -14510,8 +14510,8 @@
       <c r="U183" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V183" s="1" t="s">
-        <v>33</v>
+      <c r="V183" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="184">
@@ -14578,8 +14578,8 @@
       <c r="U184" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V184" s="1" t="s">
-        <v>33</v>
+      <c r="V184" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="185">
@@ -14646,8 +14646,8 @@
       <c r="U185" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V185" s="1" t="s">
-        <v>33</v>
+      <c r="V185" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="186">
@@ -14714,8 +14714,8 @@
       <c r="U186" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V186" s="1" t="s">
-        <v>33</v>
+      <c r="V186" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="187">
@@ -14782,8 +14782,8 @@
       <c r="U187" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V187" s="1" t="s">
-        <v>33</v>
+      <c r="V187" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="188">
@@ -14850,8 +14850,8 @@
       <c r="U188" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V188" s="1" t="s">
-        <v>33</v>
+      <c r="V188" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="189">
@@ -14918,8 +14918,8 @@
       <c r="U189" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V189" s="1" t="s">
-        <v>33</v>
+      <c r="V189" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="190">
@@ -15122,8 +15122,8 @@
       <c r="U192" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V192" s="1" t="s">
-        <v>33</v>
+      <c r="V192" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="193">
@@ -15190,8 +15190,8 @@
       <c r="U193" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V193" s="1" t="s">
-        <v>33</v>
+      <c r="V193" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="194">
@@ -15258,8 +15258,8 @@
       <c r="U194" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V194" s="1" t="s">
-        <v>33</v>
+      <c r="V194" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="195">
@@ -15326,8 +15326,8 @@
       <c r="U195" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V195" s="1" t="s">
-        <v>33</v>
+      <c r="V195" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="196">
@@ -15394,8 +15394,8 @@
       <c r="U196" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V196" s="1" t="s">
-        <v>33</v>
+      <c r="V196" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="197">
@@ -15462,8 +15462,8 @@
       <c r="U197" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V197" s="1" t="s">
-        <v>33</v>
+      <c r="V197" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="198">
@@ -15530,8 +15530,8 @@
       <c r="U198" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V198" s="1" t="s">
-        <v>33</v>
+      <c r="V198" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="199">
@@ -15598,8 +15598,8 @@
       <c r="U199" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V199" s="1" t="s">
-        <v>33</v>
+      <c r="V199" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="200">
@@ -15666,8 +15666,8 @@
       <c r="U200" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V200" s="1" t="s">
-        <v>33</v>
+      <c r="V200" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="201">
@@ -15734,8 +15734,8 @@
       <c r="U201" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V201" s="1" t="s">
-        <v>33</v>
+      <c r="V201" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="202">
@@ -15802,8 +15802,8 @@
       <c r="U202" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V202" s="1" t="s">
-        <v>33</v>
+      <c r="V202" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="203">
@@ -15870,8 +15870,8 @@
       <c r="U203" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V203" s="1" t="s">
-        <v>33</v>
+      <c r="V203" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="204">
@@ -15938,8 +15938,8 @@
       <c r="U204" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V204" s="1" t="s">
-        <v>33</v>
+      <c r="V204" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="205">
@@ -16006,8 +16006,8 @@
       <c r="U205" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V205" s="1" t="s">
-        <v>33</v>
+      <c r="V205" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="206">
@@ -16074,8 +16074,8 @@
       <c r="U206" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V206" s="1" t="s">
-        <v>33</v>
+      <c r="V206" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="207">
@@ -16142,8 +16142,8 @@
       <c r="U207" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V207" s="1" t="s">
-        <v>33</v>
+      <c r="V207" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="208">
@@ -16210,8 +16210,8 @@
       <c r="U208" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V208" s="1" t="s">
-        <v>33</v>
+      <c r="V208" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="209">
@@ -16278,8 +16278,8 @@
       <c r="U209" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V209" s="1" t="s">
-        <v>33</v>
+      <c r="V209" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="210">
@@ -16346,8 +16346,8 @@
       <c r="U210" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V210" s="1" t="s">
-        <v>33</v>
+      <c r="V210" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="211">
@@ -16414,8 +16414,8 @@
       <c r="U211" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V211" s="1" t="s">
-        <v>33</v>
+      <c r="V211" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="212">
@@ -16482,8 +16482,8 @@
       <c r="U212" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V212" s="1" t="s">
-        <v>33</v>
+      <c r="V212" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="213">
@@ -16550,8 +16550,8 @@
       <c r="U213" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V213" s="1" t="s">
-        <v>33</v>
+      <c r="V213" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="214">
@@ -16618,8 +16618,8 @@
       <c r="U214" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V214" s="1" t="s">
-        <v>33</v>
+      <c r="V214" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="215">
@@ -16686,8 +16686,8 @@
       <c r="U215" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V215" s="1" t="s">
-        <v>33</v>
+      <c r="V215" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="216">
@@ -16754,8 +16754,8 @@
       <c r="U216" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V216" s="1" t="s">
-        <v>33</v>
+      <c r="V216" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="217">
@@ -16822,8 +16822,8 @@
       <c r="U217" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V217" s="1" t="s">
-        <v>33</v>
+      <c r="V217" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="218">
@@ -16890,8 +16890,8 @@
       <c r="U218" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V218" s="1" t="s">
-        <v>33</v>
+      <c r="V218" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="219">
@@ -16958,8 +16958,8 @@
       <c r="U219" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V219" s="1" t="s">
-        <v>33</v>
+      <c r="V219" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="220">
@@ -17026,8 +17026,8 @@
       <c r="U220" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V220" s="1" t="s">
-        <v>33</v>
+      <c r="V220" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="221">
@@ -17094,8 +17094,8 @@
       <c r="U221" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V221" s="1" t="s">
-        <v>33</v>
+      <c r="V221" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="222">
@@ -17162,8 +17162,8 @@
       <c r="U222" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V222" s="1" t="s">
-        <v>33</v>
+      <c r="V222" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="223">
@@ -17230,8 +17230,8 @@
       <c r="U223" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V223" s="1" t="s">
-        <v>33</v>
+      <c r="V223" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="224">
@@ -17298,8 +17298,8 @@
       <c r="U224" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V224" s="1" t="s">
-        <v>33</v>
+      <c r="V224" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="225">
@@ -17366,8 +17366,8 @@
       <c r="U225" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V225" s="1" t="s">
-        <v>33</v>
+      <c r="V225" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="226">
@@ -17434,8 +17434,8 @@
       <c r="U226" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V226" s="1" t="s">
-        <v>33</v>
+      <c r="V226" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="227">
@@ -17502,8 +17502,8 @@
       <c r="U227" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V227" s="1" t="s">
-        <v>33</v>
+      <c r="V227" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="228">
@@ -17570,8 +17570,8 @@
       <c r="U228" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V228" s="1" t="s">
-        <v>33</v>
+      <c r="V228" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="229">
@@ -17638,8 +17638,8 @@
       <c r="U229" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V229" s="1" t="s">
-        <v>33</v>
+      <c r="V229" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="230">
@@ -17706,8 +17706,8 @@
       <c r="U230" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V230" s="1" t="s">
-        <v>33</v>
+      <c r="V230" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="231">
@@ -17774,8 +17774,8 @@
       <c r="U231" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V231" s="1" t="s">
-        <v>33</v>
+      <c r="V231" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="232">
@@ -17842,8 +17842,8 @@
       <c r="U232" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V232" s="1" t="s">
-        <v>33</v>
+      <c r="V232" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="233">
@@ -17910,8 +17910,8 @@
       <c r="U233" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V233" s="1" t="s">
-        <v>33</v>
+      <c r="V233" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="234">
@@ -17978,8 +17978,8 @@
       <c r="U234" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V234" s="1" t="s">
-        <v>33</v>
+      <c r="V234" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="235">
@@ -18046,8 +18046,8 @@
       <c r="U235" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V235" s="1" t="s">
-        <v>33</v>
+      <c r="V235" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="236">
@@ -18114,8 +18114,8 @@
       <c r="U236" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V236" s="1" t="s">
-        <v>33</v>
+      <c r="V236" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="237">
@@ -18182,8 +18182,8 @@
       <c r="U237" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V237" s="1" t="s">
-        <v>33</v>
+      <c r="V237" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="238">
@@ -18250,8 +18250,8 @@
       <c r="U238" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V238" s="1" t="s">
-        <v>33</v>
+      <c r="V238" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="239">
@@ -18366,7 +18366,7 @@
         <v>71</v>
       </c>
       <c r="O240" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P240" s="2" t="s">
         <v>32</v>
@@ -18454,8 +18454,8 @@
       <c r="U241" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V241" s="1" t="s">
-        <v>33</v>
+      <c r="V241" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="242">
@@ -18522,8 +18522,8 @@
       <c r="U242" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V242" s="1" t="s">
-        <v>33</v>
+      <c r="V242" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="243">
@@ -18590,8 +18590,8 @@
       <c r="U243" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V243" s="1" t="s">
-        <v>33</v>
+      <c r="V243" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="244">
@@ -18658,8 +18658,8 @@
       <c r="U244" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V244" s="1" t="s">
-        <v>33</v>
+      <c r="V244" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="245">
@@ -18726,8 +18726,8 @@
       <c r="U245" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V245" s="1" t="s">
-        <v>33</v>
+      <c r="V245" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="246">
@@ -18794,8 +18794,8 @@
       <c r="U246" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V246" s="1" t="s">
-        <v>33</v>
+      <c r="V246" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="247">
@@ -18862,8 +18862,8 @@
       <c r="U247" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V247" s="1" t="s">
-        <v>33</v>
+      <c r="V247" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="248">
@@ -18930,8 +18930,8 @@
       <c r="U248" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V248" s="1" t="s">
-        <v>33</v>
+      <c r="V248" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="249">
@@ -18998,8 +18998,8 @@
       <c r="U249" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V249" s="1" t="s">
-        <v>33</v>
+      <c r="V249" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="250">
@@ -19066,8 +19066,8 @@
       <c r="U250" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V250" s="1" t="s">
-        <v>33</v>
+      <c r="V250" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="251">
@@ -19134,8 +19134,8 @@
       <c r="U251" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V251" s="1" t="s">
-        <v>33</v>
+      <c r="V251" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="252">
@@ -19202,8 +19202,8 @@
       <c r="U252" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V252" s="1" t="s">
-        <v>33</v>
+      <c r="V252" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="253">
@@ -19270,8 +19270,8 @@
       <c r="U253" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V253" s="1" t="s">
-        <v>33</v>
+      <c r="V253" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="254">
@@ -19338,8 +19338,8 @@
       <c r="U254" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V254" s="1" t="s">
-        <v>33</v>
+      <c r="V254" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="255">
@@ -19406,8 +19406,8 @@
       <c r="U255" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V255" s="1" t="s">
-        <v>33</v>
+      <c r="V255" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="256">
@@ -19474,8 +19474,8 @@
       <c r="U256" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V256" s="1" t="s">
-        <v>33</v>
+      <c r="V256" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="257">
@@ -19542,8 +19542,8 @@
       <c r="U257" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V257" s="1" t="s">
-        <v>33</v>
+      <c r="V257" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="258">
@@ -19610,8 +19610,8 @@
       <c r="U258" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V258" s="1" t="s">
-        <v>33</v>
+      <c r="V258" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="259">
@@ -19678,8 +19678,8 @@
       <c r="U259" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V259" s="1" t="s">
-        <v>33</v>
+      <c r="V259" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="260">
@@ -19746,8 +19746,8 @@
       <c r="U260" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V260" s="1" t="s">
-        <v>33</v>
+      <c r="V260" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="261">
@@ -19950,8 +19950,8 @@
       <c r="U263" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V263" s="1" t="s">
-        <v>33</v>
+      <c r="V263" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="264">
@@ -20018,8 +20018,8 @@
       <c r="U264" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V264" s="1" t="s">
-        <v>33</v>
+      <c r="V264" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="265">
@@ -20086,8 +20086,8 @@
       <c r="U265" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V265" s="1" t="s">
-        <v>33</v>
+      <c r="V265" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="266">
@@ -20154,8 +20154,8 @@
       <c r="U266" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V266" s="1" t="s">
-        <v>33</v>
+      <c r="V266" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="267">
@@ -20222,8 +20222,8 @@
       <c r="U267" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V267" s="1" t="s">
-        <v>33</v>
+      <c r="V267" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="268">
@@ -20290,8 +20290,8 @@
       <c r="U268" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V268" s="1" t="s">
-        <v>33</v>
+      <c r="V268" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="269">
@@ -20358,8 +20358,8 @@
       <c r="U269" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V269" s="1" t="s">
-        <v>33</v>
+      <c r="V269" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="270">
@@ -20426,8 +20426,8 @@
       <c r="U270" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V270" s="1" t="s">
-        <v>33</v>
+      <c r="V270" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="271">
@@ -20494,8 +20494,8 @@
       <c r="U271" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V271" s="1" t="s">
-        <v>33</v>
+      <c r="V271" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="272">
@@ -20562,8 +20562,8 @@
       <c r="U272" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V272" s="1" t="s">
-        <v>33</v>
+      <c r="V272" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="273">
@@ -20630,8 +20630,8 @@
       <c r="U273" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V273" s="1" t="s">
-        <v>33</v>
+      <c r="V273" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="274">
@@ -20698,8 +20698,8 @@
       <c r="U274" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V274" s="1" t="s">
-        <v>33</v>
+      <c r="V274" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="275">
@@ -20766,8 +20766,8 @@
       <c r="U275" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V275" s="1" t="s">
-        <v>33</v>
+      <c r="V275" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="276">
@@ -20834,8 +20834,8 @@
       <c r="U276" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V276" s="1" t="s">
-        <v>33</v>
+      <c r="V276" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="277">
@@ -20902,8 +20902,8 @@
       <c r="U277" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V277" s="1" t="s">
-        <v>33</v>
+      <c r="V277" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="278">
@@ -20970,8 +20970,8 @@
       <c r="U278" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V278" s="1" t="s">
-        <v>33</v>
+      <c r="V278" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="279">
@@ -21038,8 +21038,8 @@
       <c r="U279" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V279" s="1" t="s">
-        <v>33</v>
+      <c r="V279" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="280">
@@ -21106,8 +21106,8 @@
       <c r="U280" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V280" s="1" t="s">
-        <v>33</v>
+      <c r="V280" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="281">
@@ -21174,8 +21174,8 @@
       <c r="U281" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V281" s="1" t="s">
-        <v>33</v>
+      <c r="V281" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="282">
@@ -21242,8 +21242,8 @@
       <c r="U282" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V282" s="1" t="s">
-        <v>33</v>
+      <c r="V282" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="283">
@@ -21310,8 +21310,8 @@
       <c r="U283" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V283" s="1" t="s">
-        <v>33</v>
+      <c r="V283" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="284">
@@ -21378,8 +21378,8 @@
       <c r="U284" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V284" s="1" t="s">
-        <v>33</v>
+      <c r="V284" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="285">
@@ -21446,8 +21446,8 @@
       <c r="U285" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V285" s="1" t="s">
-        <v>33</v>
+      <c r="V285" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="286">
@@ -21650,8 +21650,8 @@
       <c r="U288" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V288" s="1" t="s">
-        <v>33</v>
+      <c r="V288" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="289">
@@ -21718,8 +21718,8 @@
       <c r="U289" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V289" s="1" t="s">
-        <v>33</v>
+      <c r="V289" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="290">
@@ -21786,8 +21786,8 @@
       <c r="U290" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V290" s="1" t="s">
-        <v>33</v>
+      <c r="V290" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="291">
@@ -21854,8 +21854,8 @@
       <c r="U291" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V291" s="1" t="s">
-        <v>33</v>
+      <c r="V291" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="292">
@@ -21922,8 +21922,8 @@
       <c r="U292" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V292" s="1" t="s">
-        <v>33</v>
+      <c r="V292" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="293">
@@ -21990,8 +21990,8 @@
       <c r="U293" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V293" s="1" t="s">
-        <v>33</v>
+      <c r="V293" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="294">
@@ -22058,8 +22058,8 @@
       <c r="U294" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V294" s="1" t="s">
-        <v>33</v>
+      <c r="V294" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="295">
@@ -22126,8 +22126,8 @@
       <c r="U295" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V295" s="1" t="s">
-        <v>33</v>
+      <c r="V295" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="296">
@@ -22194,8 +22194,8 @@
       <c r="U296" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V296" s="1" t="s">
-        <v>33</v>
+      <c r="V296" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="297">
@@ -22262,8 +22262,8 @@
       <c r="U297" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V297" s="1" t="s">
-        <v>33</v>
+      <c r="V297" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="298">
@@ -22330,8 +22330,8 @@
       <c r="U298" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V298" s="1" t="s">
-        <v>33</v>
+      <c r="V298" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="299">
@@ -22398,8 +22398,8 @@
       <c r="U299" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V299" s="1" t="s">
-        <v>33</v>
+      <c r="V299" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="300">
@@ -22466,8 +22466,8 @@
       <c r="U300" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V300" s="1" t="s">
-        <v>33</v>
+      <c r="V300" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="301">
@@ -22534,8 +22534,8 @@
       <c r="U301" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V301" s="1" t="s">
-        <v>33</v>
+      <c r="V301" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="302">
@@ -22602,8 +22602,8 @@
       <c r="U302" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V302" s="1" t="s">
-        <v>33</v>
+      <c r="V302" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="303">
@@ -22670,8 +22670,8 @@
       <c r="U303" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V303" s="1" t="s">
-        <v>33</v>
+      <c r="V303" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="304">
@@ -22738,8 +22738,8 @@
       <c r="U304" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V304" s="1" t="s">
-        <v>33</v>
+      <c r="V304" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="305">
@@ -22806,8 +22806,8 @@
       <c r="U305" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V305" s="1" t="s">
-        <v>33</v>
+      <c r="V305" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="306">
@@ -23010,8 +23010,8 @@
       <c r="U308" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V308" s="1" t="s">
-        <v>33</v>
+      <c r="V308" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="309">
@@ -23078,8 +23078,8 @@
       <c r="U309" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V309" s="1" t="s">
-        <v>33</v>
+      <c r="V309" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="310">
@@ -23146,8 +23146,8 @@
       <c r="U310" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V310" s="1" t="s">
-        <v>33</v>
+      <c r="V310" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="311">
@@ -23214,8 +23214,8 @@
       <c r="U311" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V311" s="1" t="s">
-        <v>33</v>
+      <c r="V311" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="312">
@@ -23282,8 +23282,8 @@
       <c r="U312" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V312" s="1" t="s">
-        <v>33</v>
+      <c r="V312" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="313">
@@ -23350,8 +23350,8 @@
       <c r="U313" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V313" s="1" t="s">
-        <v>33</v>
+      <c r="V313" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="314">
@@ -23418,8 +23418,8 @@
       <c r="U314" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V314" s="1" t="s">
-        <v>33</v>
+      <c r="V314" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="315">
@@ -23486,8 +23486,8 @@
       <c r="U315" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V315" s="1" t="s">
-        <v>33</v>
+      <c r="V315" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="316">
@@ -23554,8 +23554,8 @@
       <c r="U316" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V316" s="1" t="s">
-        <v>33</v>
+      <c r="V316" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="317">
@@ -23622,8 +23622,8 @@
       <c r="U317" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V317" s="1" t="s">
-        <v>33</v>
+      <c r="V317" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="318">
@@ -23637,7 +23637,7 @@
         <v>22</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>506</v>
+        <v>467</v>
       </c>
       <c r="E318" s="2" t="s">
         <v>78</v>
@@ -23690,8 +23690,8 @@
       <c r="U318" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V318" s="1" t="s">
-        <v>33</v>
+      <c r="V318" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="319">
@@ -23705,7 +23705,7 @@
         <v>22</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E319" s="2" t="s">
         <v>80</v>
@@ -23758,8 +23758,8 @@
       <c r="U319" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V319" s="1" t="s">
-        <v>33</v>
+      <c r="V319" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="320">
@@ -23773,7 +23773,7 @@
         <v>22</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E320" s="2" t="s">
         <v>138</v>
@@ -23826,8 +23826,8 @@
       <c r="U320" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V320" s="1" t="s">
-        <v>33</v>
+      <c r="V320" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="321">
@@ -23841,7 +23841,7 @@
         <v>22</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>467</v>
+        <v>508</v>
       </c>
       <c r="E321" s="2" t="s">
         <v>112</v>
@@ -23894,8 +23894,8 @@
       <c r="U321" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V321" s="1" t="s">
-        <v>33</v>
+      <c r="V321" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="322">
@@ -23962,8 +23962,8 @@
       <c r="U322" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V322" s="1" t="s">
-        <v>33</v>
+      <c r="V322" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="323">
@@ -24030,8 +24030,8 @@
       <c r="U323" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V323" s="1" t="s">
-        <v>33</v>
+      <c r="V323" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="324">
@@ -24098,8 +24098,8 @@
       <c r="U324" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V324" s="1" t="s">
-        <v>33</v>
+      <c r="V324" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="325">
@@ -24166,8 +24166,8 @@
       <c r="U325" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V325" s="1" t="s">
-        <v>33</v>
+      <c r="V325" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="326">
@@ -24234,8 +24234,8 @@
       <c r="U326" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V326" s="1" t="s">
-        <v>33</v>
+      <c r="V326" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="327">
@@ -24347,10 +24347,10 @@
         <v>30</v>
       </c>
       <c r="N328" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="O328" s="2" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="P328" s="2" t="s">
         <v>32</v>
@@ -24438,8 +24438,8 @@
       <c r="U329" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V329" s="1" t="s">
-        <v>33</v>
+      <c r="V329" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="330">
@@ -24506,8 +24506,8 @@
       <c r="U330" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V330" s="1" t="s">
-        <v>33</v>
+      <c r="V330" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="331">
@@ -24574,8 +24574,8 @@
       <c r="U331" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V331" s="1" t="s">
-        <v>33</v>
+      <c r="V331" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="332">
@@ -24642,8 +24642,8 @@
       <c r="U332" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V332" s="1" t="s">
-        <v>33</v>
+      <c r="V332" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="333">
@@ -24710,8 +24710,8 @@
       <c r="U333" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V333" s="1" t="s">
-        <v>33</v>
+      <c r="V333" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="334">
@@ -24778,8 +24778,8 @@
       <c r="U334" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V334" s="1" t="s">
-        <v>33</v>
+      <c r="V334" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="335">
@@ -24846,8 +24846,8 @@
       <c r="U335" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V335" s="1" t="s">
-        <v>33</v>
+      <c r="V335" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="336">
@@ -24914,8 +24914,8 @@
       <c r="U336" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V336" s="1" t="s">
-        <v>33</v>
+      <c r="V336" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="337">
@@ -24982,8 +24982,8 @@
       <c r="U337" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V337" s="1" t="s">
-        <v>33</v>
+      <c r="V337" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="338">
@@ -25050,8 +25050,8 @@
       <c r="U338" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V338" s="1" t="s">
-        <v>33</v>
+      <c r="V338" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="339">
@@ -25118,8 +25118,8 @@
       <c r="U339" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V339" s="1" t="s">
-        <v>33</v>
+      <c r="V339" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="340">
@@ -25186,8 +25186,8 @@
       <c r="U340" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V340" s="1" t="s">
-        <v>33</v>
+      <c r="V340" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="341">
@@ -25254,8 +25254,8 @@
       <c r="U341" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V341" s="1" t="s">
-        <v>33</v>
+      <c r="V341" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="342">
@@ -25322,8 +25322,8 @@
       <c r="U342" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V342" s="1" t="s">
-        <v>33</v>
+      <c r="V342" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="343">
@@ -25390,8 +25390,8 @@
       <c r="U343" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V343" s="1" t="s">
-        <v>33</v>
+      <c r="V343" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="344">
@@ -25458,8 +25458,8 @@
       <c r="U344" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V344" s="1" t="s">
-        <v>33</v>
+      <c r="V344" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="345">
@@ -25526,8 +25526,8 @@
       <c r="U345" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V345" s="1" t="s">
-        <v>33</v>
+      <c r="V345" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="346">
@@ -25594,8 +25594,8 @@
       <c r="U346" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V346" s="1" t="s">
-        <v>33</v>
+      <c r="V346" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="347">
@@ -25662,8 +25662,8 @@
       <c r="U347" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V347" s="1" t="s">
-        <v>33</v>
+      <c r="V347" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="348">
@@ -25866,8 +25866,8 @@
       <c r="U350" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V350" s="1" t="s">
-        <v>33</v>
+      <c r="V350" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="351">
@@ -25934,8 +25934,8 @@
       <c r="U351" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V351" s="1" t="s">
-        <v>33</v>
+      <c r="V351" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="352">
@@ -26002,8 +26002,8 @@
       <c r="U352" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V352" s="1" t="s">
-        <v>33</v>
+      <c r="V352" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="353">
@@ -26070,8 +26070,8 @@
       <c r="U353" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V353" s="1" t="s">
-        <v>33</v>
+      <c r="V353" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="354">
@@ -26138,8 +26138,8 @@
       <c r="U354" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V354" s="1" t="s">
-        <v>33</v>
+      <c r="V354" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="355">
@@ -26206,8 +26206,8 @@
       <c r="U355" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V355" s="1" t="s">
-        <v>33</v>
+      <c r="V355" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="356">
@@ -26274,8 +26274,8 @@
       <c r="U356" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V356" s="1" t="s">
-        <v>33</v>
+      <c r="V356" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="357">
@@ -26342,8 +26342,8 @@
       <c r="U357" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V357" s="1" t="s">
-        <v>33</v>
+      <c r="V357" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Excel-XLSX/UN-SAU.xlsx
+++ b/Excel-XLSX/UN-SAU.xlsx
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>ve0E4M</t>
+    <t>P1VV4y</t>
   </si>
   <si>
     <t>1974</t>
@@ -1707,7 +1707,7 @@
     <t>365</t>
   </si>
   <si>
-    <t>3575</t>
+    <t>3576</t>
   </si>
   <si>
     <t>366</t>
@@ -26627,7 +26627,7 @@
         <v>31</v>
       </c>
       <c r="N361" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O361" s="2" t="s">
         <v>109</v>
@@ -26766,7 +26766,7 @@
         <v>76</v>
       </c>
       <c r="O363" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="P363" s="2" t="s">
         <v>33</v>
@@ -26967,7 +26967,7 @@
         <v>31</v>
       </c>
       <c r="N366" s="2" t="s">
-        <v>508</v>
+        <v>447</v>
       </c>
       <c r="O366" s="2" t="s">
         <v>563</v>
@@ -27103,10 +27103,10 @@
         <v>31</v>
       </c>
       <c r="N368" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="O368" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="P368" s="2" t="s">
         <v>33</v>
